--- a/exampleProblems/ch9_021/ch9_021.xlsx
+++ b/exampleProblems/ch9_021/ch9_021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://durhamuniversity-my.sharepoint.com/personal/vsmw51_durham_ac_uk/Documents/projects/programming/2022/python/python/rdkit37/projects/simpleLiquidNMRanalysisVoila/development/exampleProblems/ch9_021/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://durhamuniversity-my.sharepoint.com/personal/vsmw51_durham_ac_uk/Documents/projects/programming/2022/python/python/rdkit37/projects/simpleNMR/exampleProblems/ch9_021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="123" documentId="11_00A1A350F4408A0B74C6EA39254A55E76ED7003F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D9BF69D-EE6A-FB42-A9AC-AADA7F021F15}"/>
+  <xr:revisionPtr revIDLastSave="124" documentId="11_00A1A350F4408A0B74C6EA39254A55E76ED7003F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99ECE47D-6BAC-428B-9E8D-A1389C7B1BE3}"/>
   <bookViews>
-    <workbookView xWindow="11000" yWindow="500" windowWidth="17800" windowHeight="12300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="molecule" sheetId="9" r:id="rId1"/>
@@ -144,17 +144,17 @@
     <t>A (tq)</t>
   </si>
   <si>
-    <t>10,6</t>
-  </si>
-  <si>
     <t>7,2</t>
+  </si>
+  <si>
+    <t>10,10,6,6,6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -583,14 +583,14 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -607,16 +607,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C5"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="32.6640625" customWidth="1"/>
+    <col min="8" max="8" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -643,7 +643,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -666,13 +666,13 @@
         <v>35</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -695,13 +695,13 @@
         <v>9</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -724,13 +724,13 @@
         <v>9</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -759,7 +759,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -770,7 +770,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -781,7 +781,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -792,7 +792,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -803,7 +803,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -814,7 +814,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -839,9 +839,9 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="24">
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>20</v>
@@ -874,7 +874,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -906,7 +906,7 @@
       <c r="K2" s="6"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -938,7 +938,7 @@
       <c r="K3" s="6"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -970,7 +970,7 @@
       <c r="K4" s="6"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1002,7 +1002,7 @@
       <c r="K5" s="6"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1014,7 +1014,7 @@
       <c r="I6" s="1"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1027,7 +1027,7 @@
       <c r="K7" s="6"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1040,7 +1040,7 @@
       <c r="K8" s="6"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1054,7 +1054,7 @@
       <c r="K9" s="6"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1068,7 +1068,7 @@
       <c r="K10" s="6"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -1082,10 +1082,10 @@
       <c r="K11" s="9"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M15" s="8"/>
     </row>
   </sheetData>
@@ -1102,9 +1102,9 @@
       <selection activeCell="I2" sqref="I2:I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="24">
+    <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>20</v>
@@ -1148,7 +1148,7 @@
       <c r="U1" s="3"/>
       <c r="V1" s="4"/>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1181,7 +1181,7 @@
       <c r="U2" s="1"/>
       <c r="V2" s="6"/>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1214,7 +1214,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="6"/>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1247,7 +1247,7 @@
       <c r="U4" s="1"/>
       <c r="V4" s="6"/>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1280,7 +1280,7 @@
       <c r="U5" s="1"/>
       <c r="V5" s="6"/>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1313,7 +1313,7 @@
       <c r="U6" s="1"/>
       <c r="V6" s="6"/>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1346,7 +1346,7 @@
       <c r="U7" s="1"/>
       <c r="V7" s="6"/>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1379,7 +1379,7 @@
       <c r="U8" s="1"/>
       <c r="V8" s="6"/>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1412,7 +1412,7 @@
       <c r="U9" s="1"/>
       <c r="V9" s="6"/>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1445,7 +1445,7 @@
       <c r="U10" s="1"/>
       <c r="V10" s="6"/>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1478,7 +1478,7 @@
       <c r="U11" s="1"/>
       <c r="V11" s="6"/>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1493,7 +1493,7 @@
       <c r="U12" s="1"/>
       <c r="V12" s="6"/>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1508,7 +1508,7 @@
       <c r="U13" s="1"/>
       <c r="V13" s="6"/>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1523,7 +1523,7 @@
       <c r="U14" s="1"/>
       <c r="V14" s="6"/>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1538,7 +1538,7 @@
       <c r="U15" s="1"/>
       <c r="V15" s="6"/>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1553,7 +1553,7 @@
       <c r="U16" s="1"/>
       <c r="V16" s="6"/>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -1568,7 +1568,7 @@
       <c r="U17" s="8"/>
       <c r="V17" s="9"/>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1592,7 +1592,7 @@
       <c r="U18" s="8"/>
       <c r="V18" s="9"/>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1603,7 +1603,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1614,7 +1614,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1625,7 +1625,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1636,7 +1636,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1647,7 +1647,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1658,7 +1658,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1669,7 +1669,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1680,7 +1680,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1691,7 +1691,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1702,7 +1702,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1713,7 +1713,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1724,7 +1724,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1735,7 +1735,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1746,7 +1746,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -1757,7 +1757,7 @@
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1768,7 +1768,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -1789,13 +1789,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:V45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="J7" sqref="J7:K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="24">
+    <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>20</v>
@@ -1839,7 +1839,7 @@
       <c r="U1" s="3"/>
       <c r="V1" s="4"/>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1870,7 +1870,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1901,7 +1901,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1932,7 +1932,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1963,7 +1963,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1994,7 +1994,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -2025,7 +2025,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -2056,7 +2056,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -2087,7 +2087,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -2118,7 +2118,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -2149,7 +2149,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -2162,7 +2162,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2175,7 +2175,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2188,7 +2188,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2201,7 +2201,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2214,7 +2214,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2227,7 +2227,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="6"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2240,7 +2240,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2253,7 +2253,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2266,7 +2266,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2279,7 +2279,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="6"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2292,7 +2292,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="6"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -2305,7 +2305,7 @@
       <c r="J23" s="8"/>
       <c r="K23" s="9"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2318,7 +2318,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="6"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2331,7 +2331,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="6"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2344,7 +2344,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="6"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2357,7 +2357,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="6"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2370,7 +2370,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="6"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2383,7 +2383,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="6"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2396,7 +2396,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="6"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2409,7 +2409,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="6"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2422,7 +2422,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="6"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2435,7 +2435,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="6"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2448,7 +2448,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="6"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2461,7 +2461,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="6"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2474,7 +2474,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="6"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2487,7 +2487,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="6"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2500,7 +2500,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="6"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2513,7 +2513,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="6"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2526,7 +2526,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="6"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2539,7 +2539,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="6"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2552,7 +2552,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="6"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2565,7 +2565,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="6"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2578,7 +2578,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="6"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -2605,9 +2605,9 @@
       <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="24">
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>10</v>
@@ -2634,7 +2634,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2659,7 +2659,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2684,7 +2684,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -2709,7 +2709,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -2734,7 +2734,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2745,7 +2745,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2756,7 +2756,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2767,7 +2767,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2778,7 +2778,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2789,7 +2789,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2800,7 +2800,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -2811,7 +2811,7 @@
       <c r="H12" s="8"/>
       <c r="I12" s="9"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2822,7 +2822,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2833,7 +2833,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -2858,9 +2858,9 @@
       <selection activeCell="A6" sqref="A6:I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="24">
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>10</v>
@@ -2887,7 +2887,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2912,7 +2912,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2937,7 +2937,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -2962,7 +2962,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -2987,7 +2987,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2998,7 +2998,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -3009,7 +3009,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -3020,7 +3020,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -3031,7 +3031,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -3042,7 +3042,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -3059,21 +3059,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100155B07917A39914F9664B9093559A33D" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fbeff89c08116489e82681c46e7ae15d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f6191221-55a2-427d-afce-6bfcc029a585" xmlns:ns4="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a905948312a67a3512ded1d64743b24d" ns3:_="" ns4:_="">
     <xsd:import namespace="f6191221-55a2-427d-afce-6bfcc029a585"/>
@@ -3290,32 +3275,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCEF473A-5319-4ED2-888F-44217AC86176}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3332,4 +3307,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/exampleProblems/ch9_021/ch9_021.xlsx
+++ b/exampleProblems/ch9_021/ch9_021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://durhamuniversity-my.sharepoint.com/personal/vsmw51_durham_ac_uk/Documents/projects/programming/2022/python/python/rdkit37/projects/simpleNMR/exampleProblems/ch9_021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="124" documentId="11_00A1A350F4408A0B74C6EA39254A55E76ED7003F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99ECE47D-6BAC-428B-9E8D-A1389C7B1BE3}"/>
+  <xr:revisionPtr revIDLastSave="126" documentId="11_00A1A350F4408A0B74C6EA39254A55E76ED7003F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0768F22A-712D-4B0C-9688-C038D9E34C1A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7275" yWindow="990" windowWidth="20295" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="molecule" sheetId="9" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="41">
   <si>
     <t>Name</t>
   </si>
@@ -148,6 +148,12 @@
   </si>
   <si>
     <t>10,10,6,6,6</t>
+  </si>
+  <si>
+    <t>smiles</t>
+  </si>
+  <si>
+    <t>CC(O)CC(=O)O</t>
   </si>
 </sst>
 </file>
@@ -577,25 +583,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -607,7 +619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -3059,6 +3071,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100155B07917A39914F9664B9093559A33D" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fbeff89c08116489e82681c46e7ae15d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f6191221-55a2-427d-afce-6bfcc029a585" xmlns:ns4="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a905948312a67a3512ded1d64743b24d" ns3:_="" ns4:_="">
     <xsd:import namespace="f6191221-55a2-427d-afce-6bfcc029a585"/>
@@ -3275,22 +3302,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCEF473A-5319-4ED2-888F-44217AC86176}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3307,29 +3344,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/exampleProblems/ch9_021/ch9_021.xlsx
+++ b/exampleProblems/ch9_021/ch9_021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://durhamuniversity-my.sharepoint.com/personal/vsmw51_durham_ac_uk/Documents/projects/programming/2022/python/python/rdkit37/projects/simpleNMR/exampleProblems/ch9_021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="126" documentId="11_00A1A350F4408A0B74C6EA39254A55E76ED7003F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0768F22A-712D-4B0C-9688-C038D9E34C1A}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_92B7AFFA4C9F8026D9BFE9034122211D61CDA1F7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC16FAC2-DC8A-1D47-B5F4-29A967E66A46}"/>
   <bookViews>
-    <workbookView xWindow="7275" yWindow="990" windowWidth="20295" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7280" yWindow="1000" windowWidth="20300" windowHeight="13620" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="molecule" sheetId="9" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="HMBC" sheetId="8" r:id="rId5"/>
     <sheet name="C13_1D" sheetId="2" r:id="rId6"/>
     <sheet name="H1_pureshift" sheetId="3" r:id="rId7"/>
+    <sheet name="NOESY" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="41">
   <si>
     <t>Name</t>
   </si>
@@ -160,7 +161,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -585,13 +586,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="B1" t="s">
         <v>25</v>
       </c>
@@ -599,7 +603,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -623,12 +627,12 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="8" max="8" width="32.7109375" customWidth="1"/>
+    <col min="8" max="8" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -655,7 +659,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -684,7 +688,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -713,7 +717,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -742,7 +746,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -771,7 +775,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="5"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -782,7 +786,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="5"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -793,7 +797,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -804,7 +808,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -815,7 +819,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -826,7 +830,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -851,9 +855,9 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="24">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>20</v>
@@ -886,7 +890,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -918,7 +922,7 @@
       <c r="K2" s="6"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -950,7 +954,7 @@
       <c r="K3" s="6"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -982,7 +986,7 @@
       <c r="K4" s="6"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1014,7 +1018,7 @@
       <c r="K5" s="6"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" s="5"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1026,7 +1030,7 @@
       <c r="I6" s="1"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" s="5"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1039,7 +1043,7 @@
       <c r="K7" s="6"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1052,7 +1056,7 @@
       <c r="K8" s="6"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1066,7 +1070,7 @@
       <c r="K9" s="6"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1080,7 +1084,7 @@
       <c r="K10" s="6"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -1094,10 +1098,10 @@
       <c r="K11" s="9"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="M15" s="8"/>
     </row>
   </sheetData>
@@ -1111,12 +1115,12 @@
   <dimension ref="A1:V35"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I11"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="24">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>20</v>
@@ -1160,7 +1164,7 @@
       <c r="U1" s="3"/>
       <c r="V1" s="4"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1193,7 +1197,7 @@
       <c r="U2" s="1"/>
       <c r="V2" s="6"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1226,7 +1230,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="6"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1259,7 +1263,7 @@
       <c r="U4" s="1"/>
       <c r="V4" s="6"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1292,7 +1296,7 @@
       <c r="U5" s="1"/>
       <c r="V5" s="6"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1325,7 +1329,7 @@
       <c r="U6" s="1"/>
       <c r="V6" s="6"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1358,7 +1362,7 @@
       <c r="U7" s="1"/>
       <c r="V7" s="6"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1391,7 +1395,7 @@
       <c r="U8" s="1"/>
       <c r="V8" s="6"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1424,7 +1428,7 @@
       <c r="U9" s="1"/>
       <c r="V9" s="6"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1457,7 +1461,7 @@
       <c r="U10" s="1"/>
       <c r="V10" s="6"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1490,7 +1494,7 @@
       <c r="U11" s="1"/>
       <c r="V11" s="6"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22">
       <c r="A12" s="5"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1505,7 +1509,7 @@
       <c r="U12" s="1"/>
       <c r="V12" s="6"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22">
       <c r="A13" s="5"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1520,7 +1524,7 @@
       <c r="U13" s="1"/>
       <c r="V13" s="6"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22">
       <c r="A14" s="5"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1535,7 +1539,7 @@
       <c r="U14" s="1"/>
       <c r="V14" s="6"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22">
       <c r="A15" s="5"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1550,7 +1554,7 @@
       <c r="U15" s="1"/>
       <c r="V15" s="6"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22">
       <c r="A16" s="5"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1565,7 +1569,7 @@
       <c r="U16" s="1"/>
       <c r="V16" s="6"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -1580,7 +1584,7 @@
       <c r="U17" s="8"/>
       <c r="V17" s="9"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22">
       <c r="A18" s="5"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1604,7 +1608,7 @@
       <c r="U18" s="8"/>
       <c r="V18" s="9"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22">
       <c r="A19" s="5"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1615,7 +1619,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22">
       <c r="A20" s="5"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1626,7 +1630,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22">
       <c r="A21" s="5"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1637,7 +1641,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22">
       <c r="A22" s="5"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1648,7 +1652,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22">
       <c r="A23" s="5"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1659,7 +1663,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22">
       <c r="A24" s="5"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1670,7 +1674,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22">
       <c r="A25" s="5"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1681,7 +1685,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22">
       <c r="A26" s="5"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1692,7 +1696,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22">
       <c r="A27" s="5"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1703,7 +1707,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22">
       <c r="A28" s="5"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1714,7 +1718,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22">
       <c r="A29" s="5"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1725,7 +1729,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22">
       <c r="A30" s="5"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1736,7 +1740,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22">
       <c r="A31" s="5"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1747,7 +1751,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22">
       <c r="A32" s="5"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1758,7 +1762,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" s="7"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -1769,7 +1773,7 @@
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" s="5"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1780,7 +1784,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" s="7"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -1805,9 +1809,9 @@
       <selection activeCell="J7" sqref="J7:K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="24">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>20</v>
@@ -1851,7 +1855,7 @@
       <c r="U1" s="3"/>
       <c r="V1" s="4"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1882,7 +1886,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1913,7 +1917,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1944,7 +1948,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1975,7 +1979,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -2006,7 +2010,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -2037,7 +2041,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -2068,7 +2072,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -2099,7 +2103,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -2130,7 +2134,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -2161,7 +2165,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22">
       <c r="A12" s="5"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -2174,7 +2178,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22">
       <c r="A13" s="5"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2187,7 +2191,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22">
       <c r="A14" s="5"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2200,7 +2204,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22">
       <c r="A15" s="5"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2213,7 +2217,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22">
       <c r="A16" s="5"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2226,7 +2230,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="5"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2239,7 +2243,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="6"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="5"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2252,7 +2256,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="5"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2265,7 +2269,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="5"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2278,7 +2282,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="5"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2291,7 +2295,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="6"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" s="5"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2304,7 +2308,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="6"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -2317,7 +2321,7 @@
       <c r="J23" s="8"/>
       <c r="K23" s="9"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" s="5"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2330,7 +2334,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="6"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" s="5"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2343,7 +2347,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="6"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" s="5"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2356,7 +2360,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="6"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27" s="5"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2369,7 +2373,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="6"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28" s="5"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2382,7 +2386,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="6"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" s="5"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2395,7 +2399,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="6"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30" s="5"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2408,7 +2412,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="6"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31" s="5"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2421,7 +2425,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="6"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32" s="5"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2434,7 +2438,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="6"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33" s="5"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2447,7 +2451,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="6"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="A34" s="5"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2460,7 +2464,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="6"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="A35" s="5"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2473,7 +2477,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="6"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="A36" s="5"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2486,7 +2490,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="6"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="A37" s="5"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2499,7 +2503,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="6"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="A38" s="5"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2512,7 +2516,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="6"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11">
       <c r="A39" s="5"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2525,7 +2529,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="6"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11">
       <c r="A40" s="5"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2538,7 +2542,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="6"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11">
       <c r="A41" s="5"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2551,7 +2555,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="6"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11">
       <c r="A42" s="5"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2564,7 +2568,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="6"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11">
       <c r="A43" s="5"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2577,7 +2581,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="6"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11">
       <c r="A44" s="5"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2590,7 +2594,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="6"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11">
       <c r="A45" s="7"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -2617,9 +2621,9 @@
       <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="24">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>10</v>
@@ -2646,7 +2650,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2671,7 +2675,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2696,7 +2700,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -2721,7 +2725,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -2746,7 +2750,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="5"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2757,7 +2761,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="5"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2768,7 +2772,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2779,7 +2783,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2790,7 +2794,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2801,7 +2805,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="5"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2812,7 +2816,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -2823,7 +2827,7 @@
       <c r="H12" s="8"/>
       <c r="I12" s="9"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="5"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2834,7 +2838,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="5"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2845,7 +2849,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -2870,9 +2874,9 @@
       <selection activeCell="A6" sqref="A6:I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="24">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>10</v>
@@ -2899,7 +2903,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2924,7 +2928,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2949,7 +2953,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -2974,7 +2978,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -2999,7 +3003,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="5"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -3010,7 +3014,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="5"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -3021,7 +3025,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -3032,7 +3036,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -3043,7 +3047,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -3054,7 +3058,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -3064,6 +3068,57 @@
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63B33775-29DF-3F46-9496-C17258F314BB}">
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="24">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3305,16 +3360,16 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/exampleProblems/ch9_021/ch9_021.xlsx
+++ b/exampleProblems/ch9_021/ch9_021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://durhamuniversity-my.sharepoint.com/personal/vsmw51_durham_ac_uk/Documents/projects/programming/2022/python/python/rdkit37/projects/simpleNMR/exampleProblems/ch9_021/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vsmw51/Library/CloudStorage/OneDrive-DurhamUniversity/projects/programming/2022/python/python/rdkit37/projects/simpleNMR/exampleProblems/ch9_021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_92B7AFFA4C9F8026D9BFE9034122211D61CDA1F7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC16FAC2-DC8A-1D47-B5F4-29A967E66A46}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F0F8A1-FC71-B249-98EA-5BD12605E83B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7280" yWindow="1000" windowWidth="20300" windowHeight="13620" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7280" yWindow="1000" windowWidth="20300" windowHeight="13620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="molecule" sheetId="9" r:id="rId1"/>
@@ -275,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -302,6 +302,13 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -623,223 +630,225 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H15" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="8" max="8" width="32.6640625" customWidth="1"/>
+    <col min="1" max="7" width="8.83203125" style="11"/>
+    <col min="8" max="8" width="32.6640625" style="11" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="5">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="12">
         <v>4.1399999999999997</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="12">
         <v>1</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="12">
         <v>0.94</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="5">
+      <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="12">
         <v>2.4</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="12">
         <v>1</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="12">
         <v>1.02</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="5">
+      <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="12">
         <v>2.29</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="12">
         <v>1</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="12">
         <v>1.01</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="5">
+      <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="12">
         <v>1.19</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="12">
         <v>3</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="12">
         <v>3</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="12">
         <v>8</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="5"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="6"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="5"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="6"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="5"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="6"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="5"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="5"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="6"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="9"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3078,7 +3087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63B33775-29DF-3F46-9496-C17258F314BB}">
   <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
@@ -3126,18 +3135,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3358,6 +3367,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
@@ -3370,14 +3387,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/exampleProblems/ch9_021/ch9_021.xlsx
+++ b/exampleProblems/ch9_021/ch9_021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vsmw51/Library/CloudStorage/OneDrive-DurhamUniversity/projects/programming/2022/python/python/rdkit37/projects/simpleNMR/exampleProblems/ch9_021/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://durhamuniversity-my.sharepoint.com/personal/vsmw51_durham_ac_uk/Documents/projects/programming/2022/python/python/rdkit37/projects/simpleNMR/exampleProblems/ch9_021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F0F8A1-FC71-B249-98EA-5BD12605E83B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{86F0F8A1-FC71-B249-98EA-5BD12605E83B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50168B05-5675-4949-9548-363E99C33399}"/>
   <bookViews>
-    <workbookView xWindow="7280" yWindow="1000" windowWidth="20300" windowHeight="13620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7280" yWindow="1000" windowWidth="20300" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="molecule" sheetId="9" r:id="rId1"/>
@@ -275,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -304,12 +304,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -326,6 +322,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -593,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -630,15 +630,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="H15" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="7" width="8.83203125" style="11"/>
-    <col min="8" max="8" width="32.6640625" style="11" customWidth="1"/>
-    <col min="9" max="16384" width="8.83203125" style="11"/>
+    <col min="8" max="8" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -669,186 +667,186 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="12">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="1">
         <v>4.1399999999999997</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="1">
         <v>0.94</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="12">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="1">
         <v>2.4</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="1">
         <v>1</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="1">
         <v>1.02</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="12">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="1">
         <v>2.29</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="1">
         <v>1.01</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="12">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="1">
         <v>1.19</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="1">
         <v>3</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="1">
         <v>3</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="1">
         <v>8</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -861,7 +859,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -942,7 +940,7 @@
         <v>49.2</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2</v>
+        <v>-0.2</v>
       </c>
       <c r="E3" s="1">
         <v>18.68</v>
@@ -974,7 +972,7 @@
         <v>49.2</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2</v>
+        <v>-0.2</v>
       </c>
       <c r="E4" s="1">
         <v>8.69</v>
@@ -3377,15 +3375,15 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
   </ds:schemaRefs>
 </ds:datastoreItem>

--- a/exampleProblems/ch9_021/ch9_021.xlsx
+++ b/exampleProblems/ch9_021/ch9_021.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{86F0F8A1-FC71-B249-98EA-5BD12605E83B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50168B05-5675-4949-9548-363E99C33399}"/>
   <bookViews>
-    <workbookView xWindow="7280" yWindow="1000" windowWidth="20300" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="molecule" sheetId="9" r:id="rId1"/>
@@ -161,7 +161,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,10 +322,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -594,15 +590,15 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>25</v>
       </c>
@@ -610,7 +606,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -634,12 +630,12 @@
       <selection activeCell="H15" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="32.6640625" customWidth="1"/>
+    <col min="8" max="8" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10" t="s">
         <v>0</v>
@@ -666,7 +662,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -695,7 +691,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -724,7 +720,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -753,7 +749,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -782,7 +778,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -793,7 +789,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -804,7 +800,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -815,7 +811,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -826,7 +822,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -837,7 +833,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -862,9 +858,9 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="24">
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>20</v>
@@ -897,7 +893,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -929,7 +925,7 @@
       <c r="K2" s="6"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -961,7 +957,7 @@
       <c r="K3" s="6"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -993,7 +989,7 @@
       <c r="K4" s="6"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1025,7 +1021,7 @@
       <c r="K5" s="6"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1037,7 +1033,7 @@
       <c r="I6" s="1"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1050,7 +1046,7 @@
       <c r="K7" s="6"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1063,7 +1059,7 @@
       <c r="K8" s="6"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1077,7 +1073,7 @@
       <c r="K9" s="6"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1091,7 +1087,7 @@
       <c r="K10" s="6"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -1105,10 +1101,10 @@
       <c r="K11" s="9"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M15" s="8"/>
     </row>
   </sheetData>
@@ -1125,9 +1121,9 @@
       <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="24">
+    <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>20</v>
@@ -1171,7 +1167,7 @@
       <c r="U1" s="3"/>
       <c r="V1" s="4"/>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1204,7 +1200,7 @@
       <c r="U2" s="1"/>
       <c r="V2" s="6"/>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1237,7 +1233,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="6"/>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1270,7 +1266,7 @@
       <c r="U4" s="1"/>
       <c r="V4" s="6"/>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1303,7 +1299,7 @@
       <c r="U5" s="1"/>
       <c r="V5" s="6"/>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1336,7 +1332,7 @@
       <c r="U6" s="1"/>
       <c r="V6" s="6"/>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1369,7 +1365,7 @@
       <c r="U7" s="1"/>
       <c r="V7" s="6"/>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1402,7 +1398,7 @@
       <c r="U8" s="1"/>
       <c r="V8" s="6"/>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1435,7 +1431,7 @@
       <c r="U9" s="1"/>
       <c r="V9" s="6"/>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1468,7 +1464,7 @@
       <c r="U10" s="1"/>
       <c r="V10" s="6"/>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1501,7 +1497,7 @@
       <c r="U11" s="1"/>
       <c r="V11" s="6"/>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1516,7 +1512,7 @@
       <c r="U12" s="1"/>
       <c r="V12" s="6"/>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1531,7 +1527,7 @@
       <c r="U13" s="1"/>
       <c r="V13" s="6"/>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1546,7 +1542,7 @@
       <c r="U14" s="1"/>
       <c r="V14" s="6"/>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1561,7 +1557,7 @@
       <c r="U15" s="1"/>
       <c r="V15" s="6"/>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1576,7 +1572,7 @@
       <c r="U16" s="1"/>
       <c r="V16" s="6"/>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -1591,7 +1587,7 @@
       <c r="U17" s="8"/>
       <c r="V17" s="9"/>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1615,7 +1611,7 @@
       <c r="U18" s="8"/>
       <c r="V18" s="9"/>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1626,7 +1622,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1637,7 +1633,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1648,7 +1644,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1659,7 +1655,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1670,7 +1666,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1681,7 +1677,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1692,7 +1688,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1703,7 +1699,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1714,7 +1710,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1725,7 +1721,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1736,7 +1732,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1747,7 +1743,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1758,7 +1754,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1769,7 +1765,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -1780,7 +1776,7 @@
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1791,7 +1787,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -1816,9 +1812,9 @@
       <selection activeCell="J7" sqref="J7:K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="24">
+    <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>20</v>
@@ -1862,7 +1858,7 @@
       <c r="U1" s="3"/>
       <c r="V1" s="4"/>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1893,7 +1889,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1924,7 +1920,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1955,7 +1951,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1986,7 +1982,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -2017,7 +2013,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -2048,7 +2044,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -2079,7 +2075,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -2110,7 +2106,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -2141,7 +2137,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -2172,7 +2168,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -2185,7 +2181,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2198,7 +2194,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2211,7 +2207,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2224,7 +2220,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2237,7 +2233,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2250,7 +2246,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="6"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2263,7 +2259,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2276,7 +2272,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2289,7 +2285,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2302,7 +2298,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="6"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2315,7 +2311,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="6"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -2328,7 +2324,7 @@
       <c r="J23" s="8"/>
       <c r="K23" s="9"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2341,7 +2337,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="6"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2354,7 +2350,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="6"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2367,7 +2363,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="6"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2380,7 +2376,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="6"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2393,7 +2389,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="6"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2406,7 +2402,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="6"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2419,7 +2415,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="6"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2432,7 +2428,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="6"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2445,7 +2441,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="6"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2458,7 +2454,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="6"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2471,7 +2467,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="6"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2484,7 +2480,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="6"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2497,7 +2493,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="6"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2510,7 +2506,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="6"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2523,7 +2519,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="6"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2536,7 +2532,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="6"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2549,7 +2545,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="6"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2562,7 +2558,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="6"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2575,7 +2571,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="6"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2588,7 +2584,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="6"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2601,7 +2597,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="6"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -2628,9 +2624,9 @@
       <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="24">
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>10</v>
@@ -2657,7 +2653,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2682,7 +2678,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2707,7 +2703,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -2732,7 +2728,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -2757,7 +2753,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2768,7 +2764,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2779,7 +2775,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2790,7 +2786,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2801,7 +2797,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2812,7 +2808,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2823,7 +2819,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -2834,7 +2830,7 @@
       <c r="H12" s="8"/>
       <c r="I12" s="9"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2845,7 +2841,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2856,7 +2852,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -2881,9 +2877,9 @@
       <selection activeCell="A6" sqref="A6:I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="24">
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>10</v>
@@ -2910,7 +2906,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2935,7 +2931,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2960,7 +2956,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -2985,7 +2981,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -3010,7 +3006,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -3021,7 +3017,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -3032,7 +3028,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -3043,7 +3039,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -3054,7 +3050,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -3065,7 +3061,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -3089,12 +3085,12 @@
       <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="24">
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>20</v>
@@ -3133,21 +3129,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100155B07917A39914F9664B9093559A33D" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fbeff89c08116489e82681c46e7ae15d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f6191221-55a2-427d-afce-6bfcc029a585" xmlns:ns4="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a905948312a67a3512ded1d64743b24d" ns3:_="" ns4:_="">
     <xsd:import namespace="f6191221-55a2-427d-afce-6bfcc029a585"/>
@@ -3364,10 +3345,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCEF473A-5319-4ED2-888F-44217AC86176}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
+    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3390,20 +3397,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCEF473A-5319-4ED2-888F-44217AC86176}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
-    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>